--- a/data/trans_camb/P5_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,79</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 6,32</t>
+          <t>-2,34; 6,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 5,6</t>
+          <t>-2,13; 6,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,82</t>
+          <t>-0,99; 4,97</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 48,37</t>
+          <t>-14,3; 47,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 36,63</t>
+          <t>-11,99; 39,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 32,44</t>
+          <t>-5,77; 34,23</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-3,53</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 4,58</t>
+          <t>-9,25; 2,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 2,7</t>
+          <t>-9,66; 1,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 1,38</t>
+          <t>-7,78; 0,76</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,34%</t>
+          <t>-8,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,85%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>-9,97%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 14,25</t>
+          <t>-23,8; 7,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 8,01</t>
+          <t>-25,32; 4,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 4,03</t>
+          <t>-20,58; 2,23</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>3,16</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 14,18</t>
+          <t>-6,43; 18,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 10,16</t>
+          <t>-10,57; 11,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 9,57</t>
+          <t>-5,21; 10,72</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 61,81</t>
+          <t>-17,91; 83,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 29,92</t>
+          <t>-23,87; 33,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 32,18</t>
+          <t>-14,08; 35,05</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,22</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,52</t>
+          <t>-3,11; 3,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,46</t>
+          <t>-4,04; 2,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,53</t>
+          <t>-2,63; 1,95</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-0,84%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 19,46</t>
+          <t>-11,78; 17,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 9,94</t>
+          <t>-14,3; 8,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 10,29</t>
+          <t>-9,82; 7,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.551325420290806</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.783453164095355</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.151159987378759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 6,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 6,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 4,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.888048785958683</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.12539721324373</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8091109594487845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,73%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,76%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,1%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.29512624350445</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.048731530422704</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.506994811445946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 47,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,99; 39,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 34,23</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.1684572671937246</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.1050833596683228</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1336231925346807</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1088226060303538</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1136680789540909</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.04722656669317527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,25; 2,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,66; 1,48</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 0,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.5544485627502816</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3954743094573633</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3774762593351886</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-8,82%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-11,13%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-9,97%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.525931672276271</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.452905679919804</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.991769732828042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-23,8; 7,81</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-25,32; 4,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-20,58; 2,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.855154086689726</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.151342652853746</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.259050917595109</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.330606120265256</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.390894620012223</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.473926415416529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 18,48</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,57; 11,4</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 10,72</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.07081356214359809</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.09844839020547004</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.08458676638133489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>20,83%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2250098663537498</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.240112538173431</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1969629969609262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-17,91; 83,23</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-23,87; 33,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-14,08; 35,05</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1021764994458592</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.0725429337197855</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.0448190679200289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.289652907508493</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.1405245663067989</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.090459184940418</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 3,9</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 2,28</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 1,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.155373634361535</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.99795184195441</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.199012991674915</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,71%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,84%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15.08636794472561</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.45904987471397</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.498658894056224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-11,78; 17,27</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 8,91</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-9,82; 7,95</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.08147362590465031</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.003573931516111165</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.03241767530687697</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2738031601514165</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2480683116447911</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1910853343718733</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6864721861327279</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.3082656952181347</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2766774877387673</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.4247799900866961</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.5419483484508103</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.069754926699922</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.925774230971284</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.730057905617078</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.539412064684883</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.181400551729779</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.541299044376121</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.297428078922846</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.01700192788996482</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.02038663091894014</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.002703432972602328</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1134520204924691</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1331294021687043</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.09377579242683622</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1773399389972923</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1014302915081952</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.09450666002570988</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
